--- a/0_basic_regression.xlsx
+++ b/0_basic_regression.xlsx
@@ -124,12 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1375,7 +1374,7 @@
   <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H10" sqref="H10:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:I11" si="3">($C$12*H6)+$F$12</f>
+        <f t="shared" ref="I6:I12" si="3">($C$12*H6)+$F$12</f>
         <v>3.4000000000000004</v>
       </c>
     </row>
@@ -1571,41 +1570,58 @@
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>5.8</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>6.4</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f>((5 * F10) - (B10 * C10)) / ((5 * D10) - (B10 ^ 2))</f>
         <v>0.6</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f>((C10 * D10)-(B10 * F10) )/ ((5 * D10)-(B10^2))</f>
         <v>2.2000000000000002</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f>SLOPE(C5:C9,B5:B9)</f>
         <v>0.6</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f>INTERCEPT(C5:C9,B5:B9)</f>
         <v>2.2000000000000002</v>
       </c>

--- a/0_basic_regression.xlsx
+++ b/0_basic_regression.xlsx
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +69,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,13 +132,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,16 +1086,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1373,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,10 +1393,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
